--- a/PayRoll/ImportFormatFiles/AttendanceImportFormat.xlsx
+++ b/PayRoll/ImportFormatFiles/AttendanceImportFormat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ajit\VanitaPayRoll\PayRoll\ImportFormatFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMC Projects\VanitaPayroll\PayRoll\ImportFormatFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EA9D61-F960-4302-96F6-63E4E4EDA354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>EMPCODE</t>
   </si>
@@ -51,12 +52,15 @@
   </si>
   <si>
     <t>OT</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +138,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -412,56 +416,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="1" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="6" max="7" width="10.86328125" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="9" width="16.1328125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
